--- a/Output_testing/R1_201907/Country/HKD/MN/TURKEY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TURKEY_201907_HKD_MN.xlsx
@@ -810,136 +810,441 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3439.283397</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>44.0850163421277</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2971.481085</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>39.59341321256007</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>3759.419653</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>48.5195166622114</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2213.062564</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.98946248069485</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-8.502097686806543</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>519.068065</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.653456981231025</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>936.992164</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>12.48492481189153</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>536.627829</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>6.925782512679711</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>240.909822</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.659474953777165</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-23.74382088200043</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>471.791003</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.047455727395477</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>490.650079</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.537652694034309</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>441.904126</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.703267148547027</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>193.861024</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.554200408821829</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-32.33080622378066</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>404.10833</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.179893680055449</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.734142</v>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>152.285125</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.577495693680455</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>261.621447</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.353485140685572</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>351.621151</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.685165790250682</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>248.96663</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.213192904117538</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>143.876889</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.379968666129675</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-9.448593450348408</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>62.48873</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.8009856604581531</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>72.145477</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.9613003080173564</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>173.787472</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.2429217596548</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>140.131064</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.291971412249622</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>150.8991361439851</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>234.368924</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.004160068239612</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>280.869103</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.742432186378899</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>307.961147</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.974583149092303</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>128.31358</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.014354027622347</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-34.94004246469834</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>237.687308</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.046695386206449</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>232.058288</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.092053902871561</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>236.648729</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.054216610439858</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>94.975505</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.231173006179208</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-38.62798347591716</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>36.739338</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.4709278443124917</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>46.990262</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6261203780580213</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>106.863351</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.379191103415835</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>74.6739</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.754245896835458</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>23.25188944174845</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>84.757994</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.086434910794285</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>112.993799</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.505582585346983</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>116.455242</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.502985188182411</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>55.835834</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.311700375779031</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-20.66752968003825</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>2049.564702</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>26.27148825849378</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2008.926092</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>26.7678772298325</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1818.894464</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>23.47486803779075</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>818.826847</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>19.23595307823036</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-28.21365132153906</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1276,481 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>28.584971</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>48.38611942420714</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>30.922543</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>65.67491889538434</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>26.897546</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>43.84741780027201</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>12.881554</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>63.70064506430244</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-25.75362364198981</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.927624</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>1.570200146250305</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>4.360677</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>9.261434556141385</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>6.435369</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>10.49070845503596</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.263794</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>16.13980604801252</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-4.139474120136333</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>6.180023</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>10.46099822603797</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.635519</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.473601044935409</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>2.827814</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.609801277761861</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.732595</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.567865269608395</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>61.87665721776145</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>5.410655</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>9.158679887874767</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>4.266155</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>9.0606837742982</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>3.127027</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.097567612366243</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.935034</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.623841887170987</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-61.74199741246191</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.961353</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.627293624570051</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.061112</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.253645327259115</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.841202</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.371297424249202</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.8103</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.007019082915328</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>10.60017279997378</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.5205088968935352</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.5097245894327721</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.8150821231102646</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.893115745389369</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-63.87880000000001</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.6230821574628281</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.8775036238232529</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.5103052292266621</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>999.7975061281041</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.2138673726403597</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.7891556093598177</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.6104019606833074</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.4403715455655631</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-50.47218607134515</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.2410738989166016</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>0.953384</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.613804403759175</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.376731072492394</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.05145613443195102</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.2409206006424187</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>161.0459197342335</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>15.256847</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>25.82544586030388</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>3.636129</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>7.722601506873318</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>20.293314</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>33.08143492012652</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.6350356282497071</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-98.91188263445451</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1782,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3439.283397</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>44.42139793870529</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2971.481085</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>39.84337970694105</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>3759.419653</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>48.90671437392107</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2213.062564</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>52.23762115197359</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-8.502097686806543</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>518.8697979999999</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.701664013915987</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>936.808045</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>12.5612775520838</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>536.627829</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.98105196557591</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>240.909822</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.686489039279322</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-23.74382088200043</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>471.791003</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.093599587182812</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>490.650079</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.578927087748103</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>441.904126</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.748780627268596</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>193.861024</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.575938743250848</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-32.33080622378066</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>404.10833</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.219417787127949</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>0.734142</v>
+      </c>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>152.285125</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.594571972901053</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>261.474237</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.37717186743839</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>351.586501</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.714280205212146</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>248.96663</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.238834976119568</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>143.876889</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.396102099581924</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-9.448593450348408</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>234.368924</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.027082690118362</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>280.869103</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.766059415712867</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>307.961147</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.006301303068205</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>128.31358</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.028742291215882</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-34.94004246469834</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>33.903759</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.4378971420240194</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>41.222934</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.5527415336033243</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>146.889926</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.910907618295733</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>127.24951</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.003625746187569</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>230.5026527063194</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>237.687308</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.069942565028935</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>232.058288</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.111575076011861</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>236.648729</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.078590012402229</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>94.975505</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.241822951421709</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-38.62798347591716</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>36.739338</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.4745211617996238</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>46.990262</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.6300732859602379</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>106.863351</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.390197388638558</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>74.6739</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.762619350033143</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>23.25188944174845</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>84.757994</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.094724727611737</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>112.993799</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.515087833071896</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>108.816201</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.415602234593677</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>55.835834</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.317961448828017</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-11.00870362839358</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2019.41835</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>26.0825805190469</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1992.983154</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>26.72309945205624</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1792.087539</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>23.31346896401835</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>811.486386</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>19.15450520532695</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-28.06749468139949</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2248,443 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>835.719981</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>29.84397443253954</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1139.0927</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>25.12735047357931</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1805.236019</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>30.65515174841657</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1023.924724</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>34.70325919436185</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>16.51051975151767</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>10.130817</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.3617764926081585</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>805.287277</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>17.76390599386103</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1517.737934</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>25.77307686718512</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>456.967386</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>15.48771825508533</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>2.439823573031896</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>78.193303</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.327819489499626</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>155.59254</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.27340352055911</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>289.100423</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>10.32391928947833</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>332.013264</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.323911079761122</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>326.894011</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.551066679028831</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>150.394988</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.097246045302976</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-25.28419914171238</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>100.959226</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.605303963018422</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>158.765098</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.502213876375615</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>120.056792</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.038713574542346</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>82.267746</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.788250782363104</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>39.60083418662374</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>12.150642</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.4339054437265406</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>19.336145</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.4265377982169039</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>35.399735</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.6011315068263843</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>72.607913</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.46085592557747</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>256.231465165071</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>62.905791</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.246396952261783</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>142.842368</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.150972913101795</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>154.196284</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.618444588580934</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>64.84901600000001</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.197888338857338</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-35.26738295533885</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>27.101644</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.9678131300007634</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>28.71258</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.6333734389314265</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>57.102521</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.9696717925237365</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>64.628934</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.190429233211196</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>60.7315003024677</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>31.888934</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.138769626924764</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>85.64196200000001</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.889183904364378</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>95.320643</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.618663014235836</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>55.337234</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.875511284754418</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-20.45058843343768</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>92.717904</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.311002272679484</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>70.661686</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.558732620423265</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>96.51603</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.638962171519095</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>53.593619</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.816415999855157</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-2.854746512147199</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1337.591428</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>47.76605236917992</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1750.747583</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>38.61990170669418</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1602.197104</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>27.20729856764151</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>770.350485</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>26.10902142007205</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-20.89366321570646</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
